--- a/notebooks/CHE341-A9-vapor_pressure_data_key.xlsx
+++ b/notebooks/CHE341-A9-vapor_pressure_data_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/pchem/notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyer/programming/pchem/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDD26EF-CC51-7544-8AF5-107DC0300D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1993ABF-2BA0-4F41-93AE-F58D5EFB013A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-980" yWindow="6520" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>T_K</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>ln(P_bar)</t>
+  </si>
+  <si>
+    <t>kJ/mol</t>
+  </si>
+  <si>
+    <t>J/mol-K</t>
   </si>
 </sst>
 </file>
@@ -144,6 +150,1021 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(P_bar)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.2456770716370983E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2356360384529397E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2256348623444838E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2157718641288692E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2059958968476318E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1962575770886408E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1866526720895653E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1771314116520073E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1676927078817308E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1582423274485261E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1489663471870031E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1396781923998629E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1306515532449823E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1215657154980373E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1127355700160566E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1038015694359708E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0949866968344752E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0862018608920601E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0775335521668677E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0686373885521604E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-16.489159332349153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16.316546589682158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16.212406330429562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16.059826742834343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15.927475291349671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15.796012151789206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-15.654361634726179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.513779684104991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15.385727757245093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15.263680322802252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15.147316733800094</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15.009533031437043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14.894320219336205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-14.775230847765766</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14.645623593597376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-14.532950431093264</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14.409717790669315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-14.28551418721001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-14.144014624936311</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-14.012742727493983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E63A-6046-8374-F5BB64991CDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1132010752"/>
+        <c:axId val="1176248591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1132010752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1176248591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1176248591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1132010752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35924</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571189</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B24DACE-FB02-EBC2-9DA2-6FB02BFC21AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -442,7 +1463,7 @@
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +1479,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>445.3</v>
       </c>
@@ -485,8 +1512,16 @@
       <c r="I2">
         <v>14.482862223344124</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <f>H2*-8.3145/1000</f>
+        <v>114.61678193279968</v>
+      </c>
+      <c r="L2">
+        <f>I2*8.3145</f>
+        <v>120.41775795599473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>447.3</v>
       </c>
@@ -511,8 +1546,16 @@
       <c r="I3">
         <v>0.10812774653072058</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <f>H7*8.3145/1000</f>
+        <v>0.87620748853883401</v>
+      </c>
+      <c r="L3">
+        <f>I3*8.3145*I7</f>
+        <v>0.20423039574156873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>449.31</v>
       </c>
@@ -538,7 +1581,7 @@
         <v>1.2033980091357858E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>451.31</v>
       </c>
@@ -564,7 +1607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>453.31</v>
       </c>
@@ -590,7 +1633,7 @@
         <v>2.6067001831055515E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>455.32</v>
       </c>
@@ -618,7 +1661,7 @@
         <v>0.22716796584798726</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>457.32</v>
       </c>
@@ -638,7 +1681,7 @@
         <v>-15.654361634726179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>459.32</v>
       </c>
@@ -658,7 +1701,7 @@
         <v>-15.513779684104991</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>461.32</v>
       </c>
@@ -678,7 +1721,7 @@
         <v>-15.385727757245093</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>463.34</v>
       </c>
@@ -698,7 +1741,7 @@
         <v>-15.263680322802252</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>465.34</v>
       </c>
@@ -718,7 +1761,7 @@
         <v>-15.147316733800094</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>467.36</v>
       </c>
@@ -738,7 +1781,7 @@
         <v>-15.009533031437043</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>469.34</v>
       </c>
@@ -758,7 +1801,7 @@
         <v>-14.894320219336205</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>471.35</v>
       </c>
@@ -778,7 +1821,7 @@
         <v>-14.775230847765766</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>473.32</v>
       </c>
@@ -900,5 +1943,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/notebooks/CHE341-A9-vapor_pressure_data_key.xlsx
+++ b/notebooks/CHE341-A9-vapor_pressure_data_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11105"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyer/programming/pchem/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1993ABF-2BA0-4F41-93AE-F58D5EFB013A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781DECF3-7040-BF42-BF63-4544BCEA2BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-980" yWindow="6520" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,6 +93,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1130,16 +1131,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>35924</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>337482</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>571189</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1454,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
